--- a/xlsx/死刑_intext.xlsx
+++ b/xlsx/死刑_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="856">
   <si>
     <t>死刑</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%88%91_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
-    <t>極刑 (小說)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_死刑</t>
+    <t>极刑 (小说)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_死刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91%E5%AD%98%E5%BB%A2%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>死刑存廢問題</t>
+    <t>死刑存废问题</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Religion_and_capital_punishment</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%A4%E7%8D%84</t>
   </si>
   <si>
-    <t>冤獄</t>
+    <t>冤狱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Capital_punishment_in_Afghanistan</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>中華人民共和國死刑制度</t>
+    <t>中华人民共和国死刑制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%AD%BB%E5%88%91%E7%BD%AA%E5%90%8D%E5%88%97%E8%A1%A8</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>印度尼西亞死刑制度</t>
+    <t>印度尼西亚死刑制度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Capital_punishment_in_Iran</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>中華民國死刑制度</t>
+    <t>中华民国死刑制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>朝鮮死刑制度</t>
+    <t>朝鲜死刑制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>泰國死刑制度</t>
+    <t>泰国死刑制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>馬來西亞死刑制度</t>
+    <t>马来西亚死刑制度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Capital_punishment_in_Pakistan</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯死刑制度</t>
+    <t>沙乌地阿拉伯死刑制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國死刑制度</t>
+    <t>阿拉伯联合大公国死刑制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E8%A1%8C%E6%AD%BB%E5%88%91%E7%9A%84%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
-    <t>執行死刑的方法</t>
+    <t>执行死刑的方法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B7%E5%88%91</t>
@@ -233,25 +233,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AC%E6%B1%BA</t>
   </si>
   <si>
-    <t>犬決</t>
+    <t>犬决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%BC%AA</t>
   </si>
   <si>
-    <t>死亡輪</t>
+    <t>死亡轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E8%A3%82</t>
   </si>
   <si>
-    <t>車裂</t>
+    <t>车裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8F%E8%AA%85</t>
   </si>
   <si>
-    <t>族誅</t>
+    <t>族诛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%88%91</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AC%E9%A6%96</t>
   </si>
   <si>
-    <t>斬首</t>
+    <t>斩首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%85%B9</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8B%E9%8C%AF</t>
   </si>
   <si>
-    <t>介錯</t>
+    <t>介错</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%B0%E6%96%A9</t>
@@ -305,13 +305,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E9%A6%AC%E5%88%86%E5%B1%8D</t>
   </si>
   <si>
-    <t>五馬分屍</t>
+    <t>五马分尸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A4%85</t>
   </si>
   <si>
-    <t>電椅</t>
+    <t>电椅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%AA%E6%AF%99</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9D%E7%9A%AE</t>
   </si>
   <si>
-    <t>剝皮</t>
+    <t>剥皮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E6%B0%94%E5%AE%A4</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E9%81%B2</t>
   </si>
   <si>
-    <t>凌遲</t>
+    <t>凌迟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%88%91</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B8%E5%88%91</t>
   </si>
   <si>
-    <t>獸刑</t>
+    <t>兽刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E6%9C%A8%E9%A9%A2</t>
   </si>
   <si>
-    <t>騎木驢</t>
+    <t>骑木驴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E7%BD%B0%E5%AD%B8</t>
   </si>
   <si>
-    <t>刑罰學</t>
+    <t>刑罚学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%AD%BB%E5%88%91</t>
@@ -407,25 +407,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪生物學</t>
+    <t>犯罪生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪社會學</t>
+    <t>犯罪社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪心理學</t>
+    <t>犯罪心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E6%94%BF%E7%AD%96</t>
@@ -437,25 +437,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E5%AE%B3%E8%80%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>受害者學</t>
+    <t>受害者学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E8%AB%96</t>
   </si>
   <si>
-    <t>知識論</t>
+    <t>知识论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%A4%BE%E6%9C%83%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥社會學派</t>
+    <t>芝加哥社会学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marxist_criminology</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>女性主義犯罪學</t>
+    <t>女性主义犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%90%A8%E9%9B%B7%C2%B7%E9%BE%99%E5%8B%83%E7%BD%97%E6%A2%AD</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%97%85%E5%AD%B8%E6%A8%A1%E5%BC%8F_(%E7%8A%AF%E7%BD%AA%E5%AD%B8)</t>
   </si>
   <si>
-    <t>精神病學模式 (犯罪學)</t>
+    <t>精神病学模式 (犯罪学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E5%BC%A0%E7%90%86%E8%AE%BA</t>
@@ -491,61 +491,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AE%E5%88%A5%E6%8E%A5%E8%A7%B8%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>差別接觸理論</t>
+    <t>差别接触理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%8E%A7%E5%88%B6%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>社會控制理論</t>
+    <t>社会控制理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B1%A4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>標籤理論</t>
+    <t>标籤理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B8%83%E8%90%8A%E7%89%B9%E6%87%B7%E7%89%B9_(%E7%8A%AF%E7%BD%AA%E5%AD%B8)</t>
   </si>
   <si>
-    <t>約翰·布萊特懷特 (犯罪學)</t>
+    <t>约翰·布莱特怀特 (犯罪学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理性選擇理論</t>
+    <t>理性选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%AA%97%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>破窗理論</t>
+    <t>破窗理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E5%A0%B1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>應報理論</t>
+    <t>应报理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9A%87%E9%98%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>嚇阻理論</t>
+    <t>吓阻理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E9%98%B2%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>預防理論</t>
+    <t>预防理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E5%BE%A9%E6%80%A7%E5%8F%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>修復性司法</t>
+    <t>修复性司法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8A%9B</t>
@@ -569,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%98%E7%8A%AF%E7%BD%AA</t>
   </si>
   <si>
-    <t>白領犯罪</t>
+    <t>白领犯罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>社會階級</t>
+    <t>社会阶级</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_disorganization_theory</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>文化衝突</t>
+    <t>文化冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E5%9E%8B%E7%8A%AF%E7%BD%AA</t>
   </si>
   <si>
-    <t>組織型犯罪</t>
+    <t>组织型犯罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A2%AB%E5%AE%B3%E4%BA%BA</t>
@@ -635,13 +635,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E7%BD%B0</t>
   </si>
   <si>
-    <t>刑罰</t>
+    <t>刑罚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%89%E8%99%95%E5%88%86</t>
   </si>
   <si>
-    <t>保安處分</t>
+    <t>保安处分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%91%E7%8B%B1</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E8%A8%93%E8%88%87%E6%87%B2%E7%BD%B0</t>
   </si>
   <si>
-    <t>規訓與懲罰</t>
+    <t>规训与惩罚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%AF%E7%99%AB%E4%B8%8E%E6%96%87%E6%98%8E</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%90%91%E8%99%95%E9%81%87</t>
   </si>
   <si>
-    <t>轉向處遇</t>
+    <t>转向处遇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E6%84%9F%E5%8C%96%E9%99%A2</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神醫學</t>
+    <t>精神医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8C%BB%E5%AD%A6</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-犯罪學</t>
+    <t>Template talk-犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -749,19 +749,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F%E5%9F%BA%E6%9C%AC%E6%AC%8A%E5%88%A9%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>歐洲聯盟基本權利憲章</t>
+    <t>欧洲联盟基本权利宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93-%E9%87%8C%E5%A5%A7%C2%B7%E5%82%91%E6%B4%9B%E5%A7%86</t>
   </si>
   <si>
-    <t>讓-里奧·傑洛姆</t>
+    <t>让-里奥·杰洛姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AA%E7%8A%AF</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E5%9C%8B</t>
   </si>
   <si>
-    <t>叛國</t>
+    <t>叛国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%BA%E5%A5%B8</t>
@@ -815,13 +815,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E6%95%99_(%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99)</t>
   </si>
   <si>
-    <t>叛教 (伊斯蘭教)</t>
+    <t>叛教 (伊斯兰教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A9%E6%AF%92</t>
   </si>
   <si>
-    <t>販毒</t>
+    <t>贩毒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -833,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E8%85%90%E6%95%97</t>
   </si>
   <si>
-    <t>政治腐敗</t>
+    <t>政治腐败</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E7%BD%9A</t>
@@ -869,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%B9%E6%AE%BA</t>
   </si>
   <si>
-    <t>烹殺</t>
+    <t>烹杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E8%99%8E%E5%87%B3</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%85%B7%E5%88%91%E5%8F%B2</t>
   </si>
   <si>
-    <t>中國酷刑史</t>
+    <t>中国酷刑史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%9A%87%E5%9B%BD</t>
@@ -917,19 +917,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E7%B4%84%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>舊約聖經</t>
+    <t>旧约圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%81%E6%9E%B6</t>
   </si>
   <si>
-    <t>綁架</t>
+    <t>绑架</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E8%A1%93</t>
   </si>
   <si>
-    <t>巫術</t>
+    <t>巫术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%81%AF%E6%97%A5</t>
@@ -1055,9 +1055,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E8%BF%9F</t>
   </si>
   <si>
-    <t>凌迟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B3%95%E8%BF%AA%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
@@ -1091,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8D%A1%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>貝卡里亞</t>
+    <t>贝卡里亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E8%BE%B9%E6%B2%81</t>
@@ -1205,15 +1202,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
   </si>
   <si>
@@ -1235,19 +1229,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%BA%BA%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>非洲人國民大會</t>
+    <t>非洲人国民大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%BD%AA%E5%8D%94%E5%95%86</t>
   </si>
   <si>
-    <t>認罪協商</t>
+    <t>认罪协商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -1265,9 +1259,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%A6%E8%A3%82</t>
   </si>
   <si>
-    <t>车裂</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9E%E5%88%91</t>
   </si>
   <si>
@@ -1289,13 +1280,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%A4%85</t>
   </si>
   <si>
-    <t>电椅</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E8%84%88%E6%B3%A8%E5%B0%84</t>
   </si>
   <si>
-    <t>靜脈注射</t>
+    <t>静脉注射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%AD%E9%A6%96</t>
@@ -1307,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%99%A4%E6%AD%BB%E5%88%91%E7%9A%84%E5%9C%8B%E5%AE%B6%E6%88%96%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>廢除死刑的國家或地區</t>
+    <t>废除死刑的国家或地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1397,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%8F%80%E8%A8%B4%E8%A5%BF%E8%92%99%E6%96%AF%E6%A1%88</t>
   </si>
   <si>
-    <t>羅珀訴西蒙斯案</t>
+    <t>罗珀诉西蒙斯案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
@@ -1451,13 +1439,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F</t>
   </si>
   <si>
-    <t>欧盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
@@ -1475,7 +1460,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E6%A0%BC%E5%90%89%E5%8B%92%E5%9C%96</t>
   </si>
   <si>
-    <t>呼格吉勒圖</t>
+    <t>呼格吉勒图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
@@ -1505,13 +1490,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E9%98%BF%E5%90%AB%E7%B6%93</t>
   </si>
   <si>
-    <t>長阿含經</t>
+    <t>长阿含经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%AF%98%E5%A9%86%E6%B2%99%E8%AB%96</t>
   </si>
   <si>
-    <t>大毘婆沙論</t>
+    <t>大毘婆沙论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%AD%A3%E8%97%8F</t>
@@ -1523,13 +1508,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%8F%AF%E9%83%A8</t>
   </si>
   <si>
-    <t>法華部</t>
+    <t>法华部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%B9%BE%E5%AD%90</t>
   </si>
   <si>
-    <t>尼乾子</t>
+    <t>尼干子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99%E5%9B%A0%E6%9E%9C%E8%AE%BA</t>
@@ -1547,19 +1532,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9E%E5%9A%B4%E7%B6%93</t>
   </si>
   <si>
-    <t>楞嚴經</t>
+    <t>楞严经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E9%81%93%E8%BC%AA%E8%BF%B4</t>
   </si>
   <si>
-    <t>六道輪迴</t>
+    <t>六道轮回</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8B%E6%98%9F%E9%9B%B2</t>
   </si>
   <si>
-    <t>釋星雲</t>
+    <t>释星云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%80%E7%94%9F</t>
@@ -1571,31 +1556,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E7%A9%8D%E9%83%A8</t>
   </si>
   <si>
-    <t>寶積部</t>
+    <t>宝积部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A4%AA%E7%A6%8F%E9%9F%B3</t>
   </si>
   <si>
-    <t>馬太福音</t>
+    <t>马太福音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%95%99%E5%A0%B1</t>
   </si>
   <si>
-    <t>公教報</t>
+    <t>公教报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E5%AD%B8%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>穆斯林學者列表</t>
+    <t>穆斯林学者列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8B%89</t>
@@ -1619,31 +1604,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E6%B5%B7</t>
   </si>
   <si>
-    <t>領海</t>
+    <t>领海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E7%A9%BA</t>
   </si>
   <si>
-    <t>領空</t>
+    <t>领空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%A7%A6</t>
   </si>
   <si>
-    <t>強姦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%A7%A6</t>
   </si>
   <si>
-    <t>通姦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>同性戀</t>
+    <t>同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%9B%E4%BA%A4</t>
@@ -1655,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9E%E5%A7%A6%E7%BD%AA</t>
   </si>
   <si>
-    <t>雞姦罪</t>
+    <t>鸡奸罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Geoffrey_Chaucer</t>
@@ -1691,19 +1670,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E7%B6%B2%E7%B6%93_(%E4%B8%8A%E5%BA%A7%E9%83%A8)</t>
   </si>
   <si>
-    <t>梵網經 (上座部)</t>
+    <t>梵网经 (上座部)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%98%BF%E5%90%AB%E7%B6%93</t>
   </si>
   <si>
-    <t>中阿含經</t>
+    <t>中阿含经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E4%B8%80%E9%98%BF%E5%90%AB%E7%B6%93</t>
   </si>
   <si>
-    <t>增一阿含經</t>
+    <t>增一阿含经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%81%93</t>
@@ -1727,7 +1706,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%9C%9F%E5%BE%92%E5%88%91</t>
   </si>
   <si>
-    <t>無期徒刑</t>
+    <t>无期徒刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E7%BC%93</t>
@@ -1739,9 +1718,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E7%9C%BC%E8%BF%98%E7%9C%BC</t>
   </si>
   <si>
@@ -1751,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E8%A1%8C%E6%AD%BB%E5%88%91%E7%9A%84%E5%9C%8B%E5%AE%B6%E6%88%96%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>施行死刑的國家或地區</t>
+    <t>施行死刑的国家或地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
@@ -1763,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>南韓死刑制度</t>
+    <t>南韩死刑制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
@@ -1775,13 +1751,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>菲律賓死刑制度</t>
+    <t>菲律宾死刑制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>德國死刑制度</t>
+    <t>德国死刑制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1</t>
@@ -1799,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8D%E6%AA%A2</t>
   </si>
   <si>
-    <t>屍檢</t>
+    <t>尸检</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%91%E6%AD%BB</t>
@@ -1811,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%BE%8C%E6%8A%BD%E6%90%90</t>
   </si>
   <si>
-    <t>死後抽搐</t>
+    <t>死后抽搐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B4%E5%BA%8A%E6%AD%BB%E4%BA%A1</t>
@@ -1841,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%92%92%E8%B7%AF%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>拉撒路現象</t>
+    <t>拉撒路现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%92%92%E8%B7%AF%E7%BB%BC%E5%90%88%E7%97%87</t>
@@ -1859,13 +1835,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%99%A8%E5%AE%98%E6%8D%90%E8%B4%88</t>
   </si>
   <si>
-    <t>器官捐贈</t>
+    <t>器官捐赠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E7%97%87</t>
   </si>
   <si>
-    <t>絕症</t>
+    <t>绝症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9D%E6%AD%BB</t>
@@ -1919,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%B9%B4%E9%80%9D%E4%B8%96%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>歷年逝世人物列表</t>
+    <t>历年逝世人物列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_unusual_deaths</t>
@@ -1955,7 +1931,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8B%9E%E6%AD%BB</t>
   </si>
   <si>
-    <t>過勞死</t>
+    <t>过劳死</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_death</t>
@@ -1991,13 +1967,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%9F%E5%85%92%E6%AD%BB%E4%BA%A1</t>
   </si>
   <si>
-    <t>新生兒死亡</t>
+    <t>新生儿死亡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8D%E9%AB%94</t>
   </si>
   <si>
-    <t>屍體</t>
+    <t>尸体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%91%AC</t>
@@ -2051,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%AB%94%E5%86%B7%E5%87%8D%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>人體冷凍技術</t>
+    <t>人体冷冻技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E8%A7%A3%E4%BD%9C%E7%94%A8</t>
@@ -2069,7 +2045,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E9%AB%94%E4%BF%9D%E5%AD%98%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>遺體保存技術</t>
+    <t>遗体保存技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E4%B9%83%E4%BC%8A</t>
@@ -2081,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%87%8D%E8%91%AC</t>
   </si>
   <si>
-    <t>冷凍葬</t>
+    <t>冷冻葬</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Putrefaction</t>
@@ -2099,7 +2075,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E4%B8%96</t>
   </si>
   <si>
-    <t>來世</t>
+    <t>来世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%B8%E4%BD%93%E7%8E%B0%E8%B1%A1</t>
@@ -2117,7 +2093,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%B3%E5%A0%B4</t>
   </si>
   <si>
-    <t>墳場</t>
+    <t>坟场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Consciousness_after_death</t>
@@ -2153,7 +2129,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AA%E6%85%9F</t>
   </si>
   <si>
-    <t>喪慟</t>
+    <t>丧恸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Intermediate_state</t>
@@ -2165,13 +2141,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AA%E4%BA%8B</t>
   </si>
   <si>
-    <t>喪事</t>
+    <t>丧事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>復活</t>
+    <t>复活</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taboo_on_the_dead</t>
@@ -2189,13 +2165,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%84%80</t>
   </si>
   <si>
-    <t>吉儀</t>
+    <t>吉仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%83%E5%A2%93</t>
   </si>
   <si>
-    <t>掃墓</t>
+    <t>扫墓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%A0%E7%A5%AD</t>
@@ -2213,7 +2189,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E6%AD%BB%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>瀕死經驗</t>
+    <t>濒死经验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Near-death_studies</t>
@@ -2225,25 +2201,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E9%AD%82%E8%A1%93</t>
   </si>
   <si>
-    <t>招魂術</t>
+    <t>招魂术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82%E5%87%BA%E7%AB%85</t>
   </si>
   <si>
-    <t>靈魂出竅</t>
+    <t>灵魂出窍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E4%B8%96</t>
   </si>
   <si>
-    <t>轉世</t>
+    <t>转世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E8%BF%B4</t>
   </si>
   <si>
-    <t>輪迴</t>
+    <t>轮回</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E7%A5%9E%E4%BC%9A</t>
@@ -2279,13 +2255,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91%E6%A1%88%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>死刑案陪審團</t>
+    <t>死刑案陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%AD%89</t>
   </si>
   <si>
-    <t>死亡證</t>
+    <t>死亡证</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Declared_death_in_absentia</t>
@@ -2315,9 +2291,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%80%E6%AE%BA</t>
   </si>
   <si>
-    <t>謀殺</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Right_to_die</t>
   </si>
   <si>
@@ -2333,13 +2306,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E5%BB%B6%E7%BA%8C</t>
   </si>
   <si>
-    <t>生命延續</t>
+    <t>生命延续</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Death_and_culture</t>
@@ -2387,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%85%E7%B5%95%E7%87%9F</t>
   </si>
   <si>
-    <t>滅絕營</t>
+    <t>灭绝营</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Death_drive</t>
@@ -2495,7 +2468,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E5%B1%8D%E7%99%96</t>
   </si>
   <si>
-    <t>戀屍癖</t>
+    <t>恋尸癖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%95%E9%A3%9F</t>
@@ -2531,7 +2504,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA</t>
   </si>
   <si>
-    <t>自殺</t>
+    <t>自杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E5%8A%A9%E8%87%AA%E6%9D%80</t>
@@ -2549,7 +2522,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>死亡學</t>
+    <t>死亡学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thanatosensitivity</t>
@@ -2579,7 +2552,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2597,13 +2570,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -8229,7 +8202,7 @@
         <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>114</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8255,10 +8228,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>346</v>
+      </c>
+      <c r="F183" t="s">
         <v>347</v>
-      </c>
-      <c r="F183" t="s">
-        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8284,10 +8257,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>348</v>
+      </c>
+      <c r="F184" t="s">
         <v>349</v>
-      </c>
-      <c r="F184" t="s">
-        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8313,10 +8286,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>350</v>
+      </c>
+      <c r="F185" t="s">
         <v>351</v>
-      </c>
-      <c r="F185" t="s">
-        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8342,10 +8315,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>352</v>
+      </c>
+      <c r="F186" t="s">
         <v>353</v>
-      </c>
-      <c r="F186" t="s">
-        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8400,10 +8373,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>354</v>
+      </c>
+      <c r="F188" t="s">
         <v>355</v>
-      </c>
-      <c r="F188" t="s">
-        <v>356</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -8458,10 +8431,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>356</v>
+      </c>
+      <c r="F190" t="s">
         <v>357</v>
-      </c>
-      <c r="F190" t="s">
-        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8487,10 +8460,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>358</v>
+      </c>
+      <c r="F191" t="s">
         <v>359</v>
-      </c>
-      <c r="F191" t="s">
-        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8516,10 +8489,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>360</v>
+      </c>
+      <c r="F192" t="s">
         <v>361</v>
-      </c>
-      <c r="F192" t="s">
-        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8545,10 +8518,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>362</v>
+      </c>
+      <c r="F193" t="s">
         <v>363</v>
-      </c>
-      <c r="F193" t="s">
-        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8574,10 +8547,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>364</v>
+      </c>
+      <c r="F194" t="s">
         <v>365</v>
-      </c>
-      <c r="F194" t="s">
-        <v>366</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8603,10 +8576,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>366</v>
+      </c>
+      <c r="F195" t="s">
         <v>367</v>
-      </c>
-      <c r="F195" t="s">
-        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8632,10 +8605,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>368</v>
+      </c>
+      <c r="F196" t="s">
         <v>369</v>
-      </c>
-      <c r="F196" t="s">
-        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8661,10 +8634,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>370</v>
+      </c>
+      <c r="F197" t="s">
         <v>371</v>
-      </c>
-      <c r="F197" t="s">
-        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8690,10 +8663,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>372</v>
+      </c>
+      <c r="F198" t="s">
         <v>373</v>
-      </c>
-      <c r="F198" t="s">
-        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8719,10 +8692,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>374</v>
+      </c>
+      <c r="F199" t="s">
         <v>375</v>
-      </c>
-      <c r="F199" t="s">
-        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8748,10 +8721,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>376</v>
+      </c>
+      <c r="F200" t="s">
         <v>377</v>
-      </c>
-      <c r="F200" t="s">
-        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8777,10 +8750,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>378</v>
+      </c>
+      <c r="F201" t="s">
         <v>379</v>
-      </c>
-      <c r="F201" t="s">
-        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8806,10 +8779,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>380</v>
+      </c>
+      <c r="F202" t="s">
         <v>381</v>
-      </c>
-      <c r="F202" t="s">
-        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -8835,10 +8808,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>382</v>
+      </c>
+      <c r="F203" t="s">
         <v>383</v>
-      </c>
-      <c r="F203" t="s">
-        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8864,10 +8837,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>384</v>
+      </c>
+      <c r="F204" t="s">
         <v>385</v>
-      </c>
-      <c r="F204" t="s">
-        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8893,10 +8866,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>386</v>
+      </c>
+      <c r="F205" t="s">
         <v>387</v>
-      </c>
-      <c r="F205" t="s">
-        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8922,10 +8895,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>388</v>
+      </c>
+      <c r="F206" t="s">
         <v>389</v>
-      </c>
-      <c r="F206" t="s">
-        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8951,10 +8924,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>390</v>
+      </c>
+      <c r="F207" t="s">
         <v>391</v>
-      </c>
-      <c r="F207" t="s">
-        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8980,10 +8953,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>392</v>
+      </c>
+      <c r="F208" t="s">
         <v>393</v>
-      </c>
-      <c r="F208" t="s">
-        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -9009,10 +8982,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>394</v>
+      </c>
+      <c r="F209" t="s">
         <v>395</v>
-      </c>
-      <c r="F209" t="s">
-        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -9038,10 +9011,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -9067,10 +9040,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9096,10 +9069,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9125,10 +9098,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9154,10 +9127,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9183,10 +9156,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9212,10 +9185,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9270,10 +9243,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9299,10 +9272,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9328,10 +9301,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F220" t="s">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9357,10 +9330,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G221" t="n">
         <v>4</v>
@@ -9386,10 +9359,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9415,10 +9388,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9444,10 +9417,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>98</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9473,10 +9446,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9502,10 +9475,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9531,10 +9504,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9560,10 +9533,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9589,10 +9562,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9618,10 +9591,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9647,10 +9620,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9676,10 +9649,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9705,10 +9678,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9734,10 +9707,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9763,10 +9736,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9792,10 +9765,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9821,10 +9794,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9850,10 +9823,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9879,10 +9852,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9908,10 +9881,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F240" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9937,10 +9910,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F241" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9966,10 +9939,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F242" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9995,10 +9968,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F243" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10024,10 +9997,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F244" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10053,10 +10026,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F245" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G245" t="n">
         <v>5</v>
@@ -10082,10 +10055,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10111,10 +10084,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F247" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -10140,10 +10113,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F248" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G248" t="n">
         <v>9</v>
@@ -10169,10 +10142,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F249" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10198,10 +10171,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F250" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10227,10 +10200,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F251" t="s">
-        <v>478</v>
+        <v>244</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10256,10 +10229,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F252" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10285,10 +10258,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10314,10 +10287,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10343,10 +10316,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10372,10 +10345,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G256" t="n">
         <v>15</v>
@@ -10401,10 +10374,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10430,10 +10403,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F258" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10459,10 +10432,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F259" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10488,10 +10461,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F260" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G260" t="n">
         <v>5</v>
@@ -10517,10 +10490,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F261" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10546,10 +10519,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F262" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10575,10 +10548,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F263" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10604,10 +10577,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F264" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G264" t="n">
         <v>7</v>
@@ -10633,10 +10606,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F265" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10662,10 +10635,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F266" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10691,10 +10664,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F267" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10720,10 +10693,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F268" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10749,10 +10722,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10778,10 +10751,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10807,10 +10780,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G271" t="n">
         <v>4</v>
@@ -10836,10 +10809,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10865,10 +10838,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -10894,10 +10867,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -10923,10 +10896,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10952,10 +10925,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10981,10 +10954,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11010,10 +10983,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G278" t="n">
         <v>3</v>
@@ -11068,10 +11041,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F280" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11097,10 +11070,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F281" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11126,10 +11099,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F282" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11155,10 +11128,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F283" t="s">
-        <v>538</v>
+        <v>258</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11184,10 +11157,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F284" t="s">
-        <v>540</v>
+        <v>260</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11213,10 +11186,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F285" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11242,10 +11215,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F286" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11271,10 +11244,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F287" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11300,10 +11273,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F288" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11329,10 +11302,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F289" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11358,10 +11331,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F290" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11387,10 +11360,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F291" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11416,10 +11389,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F292" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11445,10 +11418,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F293" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11474,10 +11447,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F294" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11503,10 +11476,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11532,10 +11505,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F296" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G296" t="n">
         <v>4</v>
@@ -11561,10 +11534,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F297" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -11590,10 +11563,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -11619,10 +11592,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -11648,10 +11621,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11677,10 +11650,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>466</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11706,10 +11679,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11735,10 +11708,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11822,10 +11795,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F306" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11909,10 +11882,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F309" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11967,10 +11940,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F311" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11996,10 +11969,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F312" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12054,10 +12027,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F314" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12083,10 +12056,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F315" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G315" t="n">
         <v>26</v>
@@ -12112,10 +12085,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F316" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G316" t="n">
         <v>2</v>
@@ -12141,10 +12114,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F317" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12170,10 +12143,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F318" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12199,10 +12172,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F319" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12228,10 +12201,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F320" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12257,10 +12230,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F321" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12286,10 +12259,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F322" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12315,10 +12288,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F323" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12344,10 +12317,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F324" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12373,10 +12346,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F325" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12402,10 +12375,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F326" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12431,10 +12404,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F327" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12460,10 +12433,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F328" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12489,10 +12462,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F329" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12518,10 +12491,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F330" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12547,10 +12520,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F331" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12576,10 +12549,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F332" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12605,10 +12578,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F333" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12634,10 +12607,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F334" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12663,10 +12636,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F335" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12692,10 +12665,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F336" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12721,10 +12694,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F337" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12750,10 +12723,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F338" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12779,10 +12752,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F339" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12808,10 +12781,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F340" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12837,10 +12810,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F341" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12866,10 +12839,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F342" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12895,10 +12868,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F343" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12924,10 +12897,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F344" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12953,10 +12926,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F345" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12982,10 +12955,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F346" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13011,10 +12984,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F347" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13040,10 +13013,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F348" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13069,10 +13042,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F349" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13098,10 +13071,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F350" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13127,10 +13100,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F351" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13156,10 +13129,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F352" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13185,10 +13158,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F353" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13214,10 +13187,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F354" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13243,10 +13216,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F355" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13272,10 +13245,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F356" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13301,10 +13274,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F357" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13330,10 +13303,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F358" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13359,10 +13332,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F359" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13388,10 +13361,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F360" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13417,10 +13390,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F361" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13446,10 +13419,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F362" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13475,10 +13448,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F363" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13504,10 +13477,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F364" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13533,10 +13506,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F365" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13562,10 +13535,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F366" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13591,10 +13564,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F367" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13620,10 +13593,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F368" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13649,10 +13622,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F369" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13678,10 +13651,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F370" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13707,10 +13680,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F371" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13736,10 +13709,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F372" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13765,10 +13738,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F373" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13794,10 +13767,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F374" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13823,10 +13796,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F375" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13852,10 +13825,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F376" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13881,10 +13854,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F377" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -13910,10 +13883,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F378" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13939,10 +13912,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F379" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13968,10 +13941,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F380" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13997,10 +13970,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F381" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14026,10 +13999,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F382" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14055,10 +14028,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F383" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14084,10 +14057,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F384" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14113,10 +14086,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F385" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14142,10 +14115,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F386" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14171,10 +14144,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F387" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14200,10 +14173,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F388" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14229,10 +14202,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F389" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14258,10 +14231,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F390" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14287,10 +14260,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F391" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G391" t="n">
         <v>3</v>
@@ -14316,10 +14289,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F392" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14345,10 +14318,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F393" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14374,10 +14347,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F394" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14403,10 +14376,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F395" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G395" t="n">
         <v>4</v>
@@ -14432,10 +14405,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F396" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14461,10 +14434,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F397" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14490,10 +14463,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F398" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14519,10 +14492,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F399" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -14548,10 +14521,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F400" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -14577,10 +14550,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F401" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14606,10 +14579,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F402" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14635,10 +14608,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F403" t="s">
-        <v>766</v>
+        <v>252</v>
       </c>
       <c r="G403" t="n">
         <v>4</v>
@@ -14664,10 +14637,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F404" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14693,10 +14666,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F405" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14722,10 +14695,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F406" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14751,10 +14724,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F407" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14780,10 +14753,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F408" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14809,10 +14782,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="F409" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14838,10 +14811,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F410" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -14867,10 +14840,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F411" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14896,10 +14869,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F412" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14925,10 +14898,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F413" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -14954,10 +14927,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F414" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -14983,10 +14956,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F415" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15012,10 +14985,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F416" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="G416" t="n">
         <v>2</v>
@@ -15041,10 +15014,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F417" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15070,10 +15043,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F418" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15099,10 +15072,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F419" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15128,10 +15101,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F420" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15157,10 +15130,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F421" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="G421" t="n">
         <v>2</v>
@@ -15186,10 +15159,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F422" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -15215,10 +15188,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F423" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15244,10 +15217,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F424" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15273,10 +15246,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F425" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15302,10 +15275,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F426" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15331,10 +15304,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F427" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15360,10 +15333,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F428" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15389,10 +15362,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F429" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G429" t="n">
         <v>2</v>
@@ -15418,10 +15391,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F430" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15447,10 +15420,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F431" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -15476,10 +15449,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F432" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15505,10 +15478,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F433" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15534,10 +15507,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F434" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15563,10 +15536,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F435" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15592,10 +15565,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F436" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15621,10 +15594,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F437" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15650,10 +15623,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F438" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -15679,10 +15652,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F439" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -15708,10 +15681,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="F440" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15737,10 +15710,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F441" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -15766,10 +15739,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F442" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15795,10 +15768,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="F443" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="G443" t="n">
         <v>2</v>
@@ -15824,10 +15797,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F444" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15853,10 +15826,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F445" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="G445" t="n">
         <v>5</v>
@@ -15882,10 +15855,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F446" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15911,10 +15884,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="F447" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="G447" t="n">
         <v>3</v>
@@ -15940,10 +15913,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F448" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -15969,10 +15942,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="F449" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -15998,10 +15971,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F450" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16027,10 +16000,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="F451" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16056,10 +16029,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F452" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>

--- a/xlsx/死刑_intext.xlsx
+++ b/xlsx/死刑_intext.xlsx
@@ -29,7 +29,7 @@
     <t>極刑 (小說)</t>
   </si>
   <si>
-    <t>政策_政策_美國_死刑</t>
+    <t>体育运动_体育运动_罚款_死刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91%E5%AD%98%E5%BB%A2%E5%95%8F%E9%A1%8C</t>
